--- a/biology/Botanique/Ora_(cépage)/Ora_(cépage).xlsx
+++ b/biology/Botanique/Ora_(cépage)/Ora_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ora_(c%C3%A9page)</t>
+          <t>Ora_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Ora est un cépage de raisin de table blanc précoce obtenu par l'INRA de Montpellier[1]. C'est Paul Truel qui l'a créé en 1968 en croisant l'hybride Cinsault-perle de Csaba avec le Cardinal[2].
-Les grappes, cylindro-coniques, sont grosses ; les grains ellipsoïdes sont gros. La pulpe est ferme, riche en sucre et légèrement astringente ; les pépins sont très peu perceptibles[2].
+L'Ora est un cépage de raisin de table blanc précoce obtenu par l'INRA de Montpellier. C'est Paul Truel qui l'a créé en 1968 en croisant l'hybride Cinsault-perle de Csaba avec le Cardinal.
+Les grappes, cylindro-coniques, sont grosses ; les grains ellipsoïdes sont gros. La pulpe est ferme, riche en sucre et légèrement astringente ; les pépins sont très peu perceptibles.
 </t>
         </is>
       </c>
